--- a/ResultadosGerais/Algoritmos.xlsx
+++ b/ResultadosGerais/Algoritmos.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19665" windowHeight="7980"/>
+    <workbookView windowWidth="19665" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="tabelona" sheetId="3" r:id="rId3"/>
+    <sheet name="tabelona (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="52">
   <si>
     <t>Algoritmos</t>
   </si>
@@ -100,6 +103,9 @@
     <t xml:space="preserve">População real; Rankeamento da população inteira; TAU é modificado ao comparar cada perturbação com o atual f(x). Escolhe 1 das perturbações para ser efetivada; </t>
   </si>
   <si>
+    <t>Rank</t>
+  </si>
+  <si>
     <t>1º</t>
   </si>
   <si>
@@ -126,16 +132,62 @@
   <si>
     <t>9º</t>
   </si>
+  <si>
+    <t>GRIEWANGK</t>
+  </si>
+  <si>
+    <t>RASTRINGIN</t>
+  </si>
+  <si>
+    <t>ROSENBROCK</t>
+  </si>
+  <si>
+    <t>SCHWEFEL</t>
+  </si>
+  <si>
+    <t>ACKLEY</t>
+  </si>
+  <si>
+    <t>MÉDIA</t>
+  </si>
+  <si>
+    <t>Melhor f(x)</t>
+  </si>
+  <si>
+    <t>±</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>Rank Médio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="178" formatCode="0.0E+00"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -171,13 +223,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -199,77 +244,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,10 +261,41 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,7 +308,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,7 +316,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,7 +381,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,25 +411,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,13 +441,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,97 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,29 +555,304 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="33">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,32 +880,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,20 +904,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,6 +936,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -635,123 +953,138 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="27" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="32" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="32" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -760,54 +1093,270 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="29" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -869,6 +1418,1274 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="false"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="true"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="false"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GEOcanônico</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="true"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Griewangk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rastringin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rosenbrock</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Schwefel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ackley</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AGEO1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="true"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Griewangk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rastringin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rosenbrock</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Schwefel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ackley</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AGEO2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="true"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Griewangk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rastringin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rosenbrock</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Schwefel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ackley</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GEOvar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="true"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Griewangk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rastringin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rosenbrock</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Schwefel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ackley</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AGEO1var</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="true"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Griewangk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rastringin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rosenbrock</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Schwefel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ackley</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AGEO2var</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="true"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Griewangk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rastringin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rosenbrock</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Schwefel</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ackley</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="false"/>
+          <c:showVal val="false"/>
+          <c:showCatName val="false"/>
+          <c:showSerName val="false"/>
+          <c:showPercent val="false"/>
+          <c:showBubbleSize val="false"/>
+        </c:dLbls>
+        <c:marker val="false"/>
+        <c:smooth val="false"/>
+        <c:axId val="619722454"/>
+        <c:axId val="858238197"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="619722454"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858238197"/>
+        <c:crosses val="max"/>
+        <c:auto val="false"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="false"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="858238197"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="6"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="true"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619722454"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="false"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="true"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="false"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="true">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5734050" y="231775"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1131,8 +2948,8 @@
   <sheetPr/>
   <dimension ref="A2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1145,486 +2962,489 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="79" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="37" customHeight="true" spans="2:11">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="75">
         <v>7</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="75">
         <v>9</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="75">
         <v>9</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="75">
         <v>6</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="75">
         <v>7</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="79">
         <f>AVERAGE(D3:H3)</f>
         <v>7.6</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="79">
         <f>MEDIAN(D3:H3)</f>
         <v>7</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="79">
         <f>MODE(D3:H3)</f>
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="38" customHeight="true" spans="2:11">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="75">
         <v>4</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="75">
         <v>4</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="75">
         <v>4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="75">
         <v>2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="75">
         <v>3</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="79">
         <f t="shared" ref="I4:I11" si="0">AVERAGE(D4:H4)</f>
         <v>3.4</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="79">
         <f t="shared" ref="J4:J11" si="1">MEDIAN(D4:H4)</f>
         <v>4</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="79">
         <f t="shared" ref="K4:K11" si="2">MODE(D4:H4)</f>
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="42.75" spans="2:11">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="75">
         <v>8</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="75">
         <v>8</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="75">
         <v>8</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="75">
         <v>5</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="75">
         <v>9</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="79">
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="79">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="79">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="42.75" spans="2:11">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="75">
         <v>6</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="75">
         <v>6</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="75">
         <v>6</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="75">
         <v>3</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="75">
         <v>8</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="79">
         <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="79">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="79">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="42.75" spans="2:11">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="75">
         <v>9</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="75">
         <v>7</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="75">
         <v>7</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="75">
         <v>4</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="75">
         <v>6</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="79">
         <f t="shared" si="0"/>
         <v>6.6</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="79">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="79">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="2:11">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="75">
         <v>5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="75">
         <v>5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="75">
         <v>5</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="75">
         <v>1</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="75">
         <v>4</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="79">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="79">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="79">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="2:11">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="75">
         <v>2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="75">
         <v>2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="75">
         <v>2</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="75">
         <v>7</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="75">
         <v>1</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="79">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="79">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="79">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="10" ht="42.75" spans="2:11">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="75">
         <v>3</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="75">
         <v>3</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="75">
         <v>3</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="75">
         <v>8</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="75">
         <v>5</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="79">
         <f t="shared" si="0"/>
         <v>4.4</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="79">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="79">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="11" ht="42.75" spans="2:11">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="75">
         <v>1</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="75">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="75">
         <v>1</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="75">
         <v>9</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="75">
         <v>2</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="79">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="79">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="79">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="74" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="78">
         <v>2.8</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="75">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="78">
         <v>2.8</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="75">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="75">
         <v>3.4</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="75">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="75">
         <v>4</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="75">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="75">
         <v>4.4</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="75">
         <v>5.8</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="75">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="75">
         <v>6.6</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="75">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="75">
         <v>7.6</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="75">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="75">
         <v>7.6</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="75">
         <v>8</v>
       </c>
     </row>
@@ -1635,4 +3455,2102 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="true"/>
+    <col min="3" max="3" width="11" customWidth="true"/>
+    <col min="4" max="4" width="10.625" customWidth="true"/>
+    <col min="5" max="5" width="12.25" customWidth="true"/>
+    <col min="6" max="6" width="9.375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="75">
+        <v>4</v>
+      </c>
+      <c r="D3" s="75">
+        <v>6</v>
+      </c>
+      <c r="E3" s="75">
+        <v>6</v>
+      </c>
+      <c r="F3" s="75">
+        <v>6</v>
+      </c>
+      <c r="G3" s="75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="75">
+        <v>1</v>
+      </c>
+      <c r="D4" s="75">
+        <v>1</v>
+      </c>
+      <c r="E4" s="75">
+        <v>1</v>
+      </c>
+      <c r="F4" s="75">
+        <v>2</v>
+      </c>
+      <c r="G4" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="75">
+        <v>5</v>
+      </c>
+      <c r="D5" s="75">
+        <v>5</v>
+      </c>
+      <c r="E5" s="75">
+        <v>5</v>
+      </c>
+      <c r="F5" s="75">
+        <v>5</v>
+      </c>
+      <c r="G5" s="75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="75">
+        <v>3</v>
+      </c>
+      <c r="D6" s="75">
+        <v>3</v>
+      </c>
+      <c r="E6" s="75">
+        <v>3</v>
+      </c>
+      <c r="F6" s="75">
+        <v>3</v>
+      </c>
+      <c r="G6" s="75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="75">
+        <v>6</v>
+      </c>
+      <c r="D7" s="75">
+        <v>4</v>
+      </c>
+      <c r="E7" s="75">
+        <v>4</v>
+      </c>
+      <c r="F7" s="75">
+        <v>4</v>
+      </c>
+      <c r="G7" s="75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="75">
+        <v>2</v>
+      </c>
+      <c r="D8" s="75">
+        <v>2</v>
+      </c>
+      <c r="E8" s="75">
+        <v>2</v>
+      </c>
+      <c r="F8" s="75">
+        <v>1</v>
+      </c>
+      <c r="G8" s="75">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AC32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:R23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.81666666666667" customWidth="true"/>
+    <col min="2" max="2" width="13.375" customWidth="true"/>
+    <col min="3" max="3" width="8.21666666666667" customWidth="true"/>
+    <col min="4" max="4" width="1.15" customWidth="true"/>
+    <col min="5" max="5" width="7.5" customWidth="true"/>
+    <col min="6" max="6" width="5.75" customWidth="true"/>
+    <col min="7" max="7" width="2.625" customWidth="true"/>
+    <col min="8" max="8" width="10.25" customWidth="true"/>
+    <col min="9" max="9" width="1.34166666666667" customWidth="true"/>
+    <col min="10" max="10" width="9.23333333333333" customWidth="true"/>
+    <col min="11" max="11" width="5.75" customWidth="true"/>
+    <col min="12" max="12" width="2.625" customWidth="true"/>
+    <col min="13" max="13" width="10.25" customWidth="true"/>
+    <col min="14" max="14" width="1.15" customWidth="true"/>
+    <col min="15" max="15" width="8.225" customWidth="true"/>
+    <col min="16" max="16" width="5.75" customWidth="true"/>
+    <col min="17" max="17" width="2.625" customWidth="true"/>
+    <col min="18" max="18" width="10.25" customWidth="true"/>
+    <col min="19" max="19" width="1.05" customWidth="true"/>
+    <col min="20" max="20" width="8.36666666666667" customWidth="true"/>
+    <col min="21" max="21" width="5.75" customWidth="true"/>
+    <col min="22" max="22" width="2.625" customWidth="true"/>
+    <col min="23" max="23" width="10.25" customWidth="true"/>
+    <col min="24" max="24" width="1.15" customWidth="true"/>
+    <col min="25" max="25" width="8.825" customWidth="true"/>
+    <col min="26" max="26" width="5.75" customWidth="true"/>
+    <col min="27" max="27" width="2.625" customWidth="true"/>
+    <col min="29" max="29" width="4.10833333333333" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12" customHeight="true" spans="1:29">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AC1" s="60"/>
+    </row>
+    <row r="2" ht="27" customHeight="true" spans="1:29">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="27"/>
+    </row>
+    <row r="3" ht="24" customHeight="true" spans="1:29">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="56"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="56"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="27"/>
+      <c r="M3" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="56"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="56"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="27"/>
+      <c r="W3" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="60"/>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="50">
+        <v>0.132</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="63">
+        <v>0.0965063776002464</v>
+      </c>
+      <c r="F4" s="60">
+        <v>4</v>
+      </c>
+      <c r="G4" s="60"/>
+      <c r="H4" s="50">
+        <v>19.273</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="67">
+        <v>4.36737875829437</v>
+      </c>
+      <c r="K4" s="60">
+        <v>4</v>
+      </c>
+      <c r="L4" s="60"/>
+      <c r="M4" s="52">
+        <v>3.19134547909331e-5</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="69">
+        <v>4.53693404059032e-5</v>
+      </c>
+      <c r="P4" s="70">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="50">
+        <v>536.477</v>
+      </c>
+      <c r="S4" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="67">
+        <v>196.069181001229</v>
+      </c>
+      <c r="U4" s="60">
+        <v>4</v>
+      </c>
+      <c r="V4" s="60"/>
+      <c r="W4" s="52">
+        <v>0.276</v>
+      </c>
+      <c r="X4" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y4" s="69">
+        <v>0.798042531991864</v>
+      </c>
+      <c r="Z4" s="70">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60">
+        <f t="shared" ref="AB4:AB9" si="0">AVERAGE(F4,K4,P4,U4,Z4)</f>
+        <v>3</v>
+      </c>
+      <c r="AC4" s="27"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="38">
+        <v>0.009</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="64">
+        <v>0.0122558806800694</v>
+      </c>
+      <c r="F5" s="65">
+        <v>2</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="38">
+        <v>8.206</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="68">
+        <v>3.16209259736571</v>
+      </c>
+      <c r="K5" s="65">
+        <v>1</v>
+      </c>
+      <c r="L5" s="27"/>
+      <c r="M5" s="37">
+        <v>4.64721586113555e-5</v>
+      </c>
+      <c r="N5" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="71">
+        <v>3.52283254856238e-5</v>
+      </c>
+      <c r="P5" s="27">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="38">
+        <v>168.007</v>
+      </c>
+      <c r="S5" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="34">
+        <v>108.236426929137</v>
+      </c>
+      <c r="U5" s="65">
+        <v>2</v>
+      </c>
+      <c r="V5" s="27"/>
+      <c r="W5" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="X5" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y5" s="69">
+        <v>0.531586549460241</v>
+      </c>
+      <c r="Z5" s="65">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="70">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AC5" s="27"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="37">
+        <v>0.996</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="63">
+        <v>0.579582288921128</v>
+      </c>
+      <c r="F6" s="27">
+        <v>5</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="37">
+        <v>23.297</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="67">
+        <v>8.49956838329015</v>
+      </c>
+      <c r="K6" s="27">
+        <v>5</v>
+      </c>
+      <c r="L6" s="27"/>
+      <c r="M6" s="37">
+        <v>0.000103390053282981</v>
+      </c>
+      <c r="N6" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="71">
+        <v>0.000149680503438306</v>
+      </c>
+      <c r="P6" s="27">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="37">
+        <v>689.955</v>
+      </c>
+      <c r="S6" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="67">
+        <v>246.763475736191</v>
+      </c>
+      <c r="U6" s="27">
+        <v>5</v>
+      </c>
+      <c r="V6" s="27"/>
+      <c r="W6" s="37">
+        <v>5.752</v>
+      </c>
+      <c r="X6" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y6" s="71">
+        <v>3.69881847868128</v>
+      </c>
+      <c r="Z6" s="27">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="60">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
+      <c r="AC6" s="27"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="37">
+        <v>0.088</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="63">
+        <v>0.0657868338421766</v>
+      </c>
+      <c r="F7" s="27">
+        <v>3</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="37">
+        <v>15.849</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="67">
+        <v>4.63424091289783</v>
+      </c>
+      <c r="K7" s="27">
+        <v>3</v>
+      </c>
+      <c r="L7" s="27"/>
+      <c r="M7" s="38">
+        <v>4.16744416210794e-5</v>
+      </c>
+      <c r="N7" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="69">
+        <v>4.13442717575075e-5</v>
+      </c>
+      <c r="P7" s="65">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="37">
+        <v>525.29</v>
+      </c>
+      <c r="S7" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="11">
+        <v>179.800681426741</v>
+      </c>
+      <c r="U7" s="27">
+        <v>3</v>
+      </c>
+      <c r="V7" s="27"/>
+      <c r="W7" s="37">
+        <v>0.645</v>
+      </c>
+      <c r="X7" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y7" s="71">
+        <v>0.763103960603693</v>
+      </c>
+      <c r="Z7" s="27">
+        <v>3</v>
+      </c>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="60">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="AC7" s="27"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="37">
+        <v>1.787</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="63">
+        <v>1.84905922972114</v>
+      </c>
+      <c r="F8" s="27">
+        <v>6</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="37">
+        <v>26.581</v>
+      </c>
+      <c r="I8" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="67">
+        <v>9.62226037415531</v>
+      </c>
+      <c r="K8" s="27">
+        <v>6</v>
+      </c>
+      <c r="L8" s="27"/>
+      <c r="M8" s="37">
+        <v>0.000165280623744032</v>
+      </c>
+      <c r="N8" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="71">
+        <v>0.000243528763630911</v>
+      </c>
+      <c r="P8" s="27">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="37">
+        <v>793.303</v>
+      </c>
+      <c r="S8" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="67">
+        <v>150.270527086389</v>
+      </c>
+      <c r="U8" s="27">
+        <v>6</v>
+      </c>
+      <c r="V8" s="27"/>
+      <c r="W8" s="37">
+        <v>2.704</v>
+      </c>
+      <c r="X8" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y8" s="71">
+        <v>3.5720431699787</v>
+      </c>
+      <c r="Z8" s="27">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="60">
+        <f t="shared" si="0"/>
+        <v>5.8</v>
+      </c>
+      <c r="AC8" s="27"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="38">
+        <v>0.007</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="64">
+        <v>0.00678518699644487</v>
+      </c>
+      <c r="F9" s="65">
+        <v>1</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="38">
+        <v>8.249</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="68">
+        <v>2.66170675596635</v>
+      </c>
+      <c r="K9" s="65">
+        <v>2</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="37">
+        <v>4.35533283922469e-5</v>
+      </c>
+      <c r="N9" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="71">
+        <v>4.94646892158851e-5</v>
+      </c>
+      <c r="P9" s="27">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="38">
+        <v>151.254</v>
+      </c>
+      <c r="S9" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" s="34">
+        <v>103.795401126775</v>
+      </c>
+      <c r="U9" s="65">
+        <v>1</v>
+      </c>
+      <c r="V9" s="27"/>
+      <c r="W9" s="37">
+        <v>0.963</v>
+      </c>
+      <c r="X9" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="71">
+        <v>0.742071728255402</v>
+      </c>
+      <c r="Z9" s="27">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="70">
+        <f t="shared" si="0"/>
+        <v>2.2</v>
+      </c>
+      <c r="AC9" s="27"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="27"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+    </row>
+    <row r="13" spans="8:12">
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13"/>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="8:9">
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+    </row>
+    <row r="19" spans="11:11">
+      <c r="K19" s="66"/>
+    </row>
+    <row r="25" spans="14:18">
+      <c r="N25" s="66"/>
+      <c r="O25"/>
+      <c r="P25" s="66"/>
+      <c r="Q25"/>
+      <c r="R25" s="66"/>
+    </row>
+    <row r="27" spans="13:13">
+      <c r="M27" s="66"/>
+    </row>
+    <row r="28" spans="13:13">
+      <c r="M28" s="66"/>
+    </row>
+    <row r="30" spans="13:13">
+      <c r="M30" s="66"/>
+    </row>
+    <row r="32" spans="13:13">
+      <c r="M32" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="W3:Y3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AB27"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:Y20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.31666666666667" customWidth="true"/>
+    <col min="2" max="2" width="10.25" customWidth="true"/>
+    <col min="3" max="3" width="8.21666666666667" customWidth="true"/>
+    <col min="4" max="4" width="1.15" customWidth="true"/>
+    <col min="5" max="5" width="8.825" customWidth="true"/>
+    <col min="6" max="6" width="1.73333333333333" customWidth="true"/>
+    <col min="7" max="7" width="9.25" customWidth="true"/>
+    <col min="8" max="8" width="2.375" customWidth="true"/>
+    <col min="9" max="9" width="8.525" customWidth="true"/>
+    <col min="10" max="10" width="1.30833333333333" customWidth="true"/>
+    <col min="11" max="11" width="9.25" customWidth="true"/>
+    <col min="12" max="12" width="2.375" customWidth="true"/>
+    <col min="13" max="13" width="8.75" customWidth="true"/>
+    <col min="14" max="14" width="1.40833333333333" customWidth="true"/>
+    <col min="15" max="15" width="9.25" customWidth="true"/>
+    <col min="16" max="16" width="1.95833333333333" customWidth="true"/>
+    <col min="17" max="17" width="8.675" customWidth="true"/>
+    <col min="18" max="18" width="1.175" customWidth="true"/>
+    <col min="19" max="19" width="9.25" customWidth="true"/>
+    <col min="20" max="20" width="1.46666666666667" customWidth="true"/>
+    <col min="21" max="21" width="8.525" customWidth="true"/>
+    <col min="22" max="22" width="2.625" customWidth="true"/>
+    <col min="23" max="23" width="10.25" customWidth="true"/>
+    <col min="24" max="24" width="1.15" customWidth="true"/>
+    <col min="25" max="25" width="8.525" customWidth="true"/>
+    <col min="26" max="26" width="5.75" customWidth="true"/>
+    <col min="27" max="27" width="2.625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12" customHeight="true" spans="1:28">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="27"/>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+    </row>
+    <row r="3" ht="25" customHeight="true" spans="1:28">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.132</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="28">
+        <v>0.0965063776002464</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30">
+        <v>0.009</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="46">
+        <v>0.0122558806800694</v>
+      </c>
+      <c r="J4" s="27"/>
+      <c r="K4" s="6">
+        <v>0.996</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="28">
+        <v>0.579582288921128</v>
+      </c>
+      <c r="N4" s="27"/>
+      <c r="O4" s="50">
+        <v>0.088</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>0.0657868338421766</v>
+      </c>
+      <c r="R4" s="12"/>
+      <c r="S4" s="50">
+        <v>1.787</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="28">
+        <v>1.84905922972114</v>
+      </c>
+      <c r="V4" s="12"/>
+      <c r="W4" s="52">
+        <v>0.007</v>
+      </c>
+      <c r="X4" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y4" s="46">
+        <v>0.00678518699644487</v>
+      </c>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="3"/>
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="16">
+        <v>2</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="47">
+        <v>5</v>
+      </c>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47">
+        <v>3</v>
+      </c>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="9">
+        <v>6</v>
+      </c>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="16">
+        <v>1</v>
+      </c>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="10">
+        <v>19.273</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="33">
+        <v>4.36737875829437</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="34">
+        <v>8.206</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="36">
+        <v>3.16209259736571</v>
+      </c>
+      <c r="J7" s="27"/>
+      <c r="K7" s="11">
+        <v>23.297</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="48">
+        <v>8.49956838329015</v>
+      </c>
+      <c r="N7" s="47"/>
+      <c r="O7" s="37">
+        <v>15.849</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="33">
+        <v>4.63424091289783</v>
+      </c>
+      <c r="R7" s="12"/>
+      <c r="S7" s="37">
+        <v>26.581</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" s="35">
+        <v>9.62226037415531</v>
+      </c>
+      <c r="V7" s="12"/>
+      <c r="W7" s="38">
+        <v>8.249</v>
+      </c>
+      <c r="X7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y7" s="36">
+        <v>2.66170675596635</v>
+      </c>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="3"/>
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="9">
+        <v>5</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="9">
+        <v>3</v>
+      </c>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="9">
+        <v>6</v>
+      </c>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="16">
+        <v>2</v>
+      </c>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="13">
+        <v>3.19134547909331e-5</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="36">
+        <v>4.53693404059032e-5</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="37">
+        <v>4.64721586113555e-5</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="48">
+        <v>3.52283254856238e-5</v>
+      </c>
+      <c r="J10" s="35"/>
+      <c r="K10" s="37">
+        <v>0.000103390053282981</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="48">
+        <v>0.000149680503438306</v>
+      </c>
+      <c r="N10" s="12"/>
+      <c r="O10" s="38">
+        <v>4.16744416210794e-5</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="36">
+        <v>4.13442717575075e-5</v>
+      </c>
+      <c r="R10" s="12"/>
+      <c r="S10" s="37">
+        <v>0.000165280623744032</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="48">
+        <v>0.000243528763630911</v>
+      </c>
+      <c r="V10" s="12"/>
+      <c r="W10" s="37">
+        <v>4.35533283922469e-5</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="48">
+        <v>4.94646892158851e-5</v>
+      </c>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="3"/>
+      <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9">
+        <v>4</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="9">
+        <v>5</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="16">
+        <v>2</v>
+      </c>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="9">
+        <v>6</v>
+      </c>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="9">
+        <v>3</v>
+      </c>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="17">
+        <v>536.477</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="26">
+        <v>196.069181001229</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="38">
+        <v>168.007</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="49">
+        <v>108.236426929137</v>
+      </c>
+      <c r="J13" s="35"/>
+      <c r="K13" s="37">
+        <v>689.955</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="26">
+        <v>246.763475736191</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="37">
+        <v>525.29</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>179.800681426741</v>
+      </c>
+      <c r="R13" s="12"/>
+      <c r="S13" s="37">
+        <v>793.303</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U13" s="26">
+        <v>150.270527086389</v>
+      </c>
+      <c r="V13" s="12"/>
+      <c r="W13" s="38">
+        <v>151.254</v>
+      </c>
+      <c r="X13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y13" s="49">
+        <v>103.795401126775</v>
+      </c>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="3"/>
+      <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="16">
+        <v>2</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="9">
+        <v>5</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="9">
+        <v>3</v>
+      </c>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="9">
+        <v>6</v>
+      </c>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="16">
+        <v>1</v>
+      </c>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.276</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="39"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="37">
+        <v>5.752</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="51"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="37">
+        <v>0.645</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="37">
+        <v>2.704</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U16" s="51"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="37">
+        <v>0.963</v>
+      </c>
+      <c r="X16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="3"/>
+      <c r="B17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="16">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="9">
+        <v>6</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="9">
+        <v>3</v>
+      </c>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="9">
+        <v>5</v>
+      </c>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="9">
+        <v>4</v>
+      </c>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="12"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="12"/>
+      <c r="B19" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="21">
+        <f>AVERAGE(C5,C8,C11,C14,C17)</f>
+        <v>3</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42">
+        <f>AVERAGE(G5,G8,G11,G14,G17)</f>
+        <v>2</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42">
+        <f>AVERAGE(K5,K8,K11,K14,K17)</f>
+        <v>5.2</v>
+      </c>
+      <c r="L19" s="22"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="42">
+        <f>AVERAGE(O5,O8,O11,O14,O17)</f>
+        <v>2.8</v>
+      </c>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="42">
+        <f>AVERAGE(S5,S8,S11,S14,S17)</f>
+        <v>5.8</v>
+      </c>
+      <c r="T19" s="22"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="42">
+        <f>AVERAGE(W5,W8,W11,W14,W17)</f>
+        <v>2.2</v>
+      </c>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="12"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:E20"/>
+    <mergeCell ref="O19:Q20"/>
+    <mergeCell ref="G19:I20"/>
+    <mergeCell ref="S19:U20"/>
+    <mergeCell ref="K19:M20"/>
+    <mergeCell ref="W19:Y20"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/ResultadosGerais/Algoritmos.xlsx
+++ b/ResultadosGerais/Algoritmos.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19665" windowHeight="7980" activeTab="2"/>
+    <workbookView windowWidth="19665" windowHeight="7980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="tabelona" sheetId="3" r:id="rId3"/>
-    <sheet name="tabelona (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="84">
   <si>
     <t>Algoritmos</t>
   </si>
@@ -154,42 +154,532 @@
     <t>Melhor f(x)</t>
   </si>
   <si>
+    <t>GEO</t>
+  </si>
+  <si>
     <t>±</t>
   </si>
   <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>Rank Médio</t>
+    <t>b</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1,15E-01 ± 6,8E-02 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1,96E+01 ± 5,33E+00 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4,56E-05 ± 5,06E-05 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5,24E+02 ± 2,03E+02 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5,81E-01 ± 8,23E-01 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1,25E-02 ± 1,3E-02 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8,96E+00 ± 2,76E+00 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4,19E-05 ± 3,93E-05 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1,94E+02 ± 1,26E+02 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1,59E-01 ± 4,68E-01 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1,05E+00 ± 6,1E-01 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2,19E+01 ± 7,58E+00 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1,09E-04 ± 1,10E-04 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ac</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6,78E+02 ± 2,58E+02 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5,84E+00 ± 3,08E+00 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8,74E-02 ± 5,8E-02 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1,66E+01 ± 4,78E+00 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2,89E-05 ± 3,62E-05 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4,95E+02 ± 1,53E+02 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5,94E-01 ± 7,39E-01 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2,28E+00 ± 2,3E+00 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2,89E+01 ± 1,07E+01 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1,61E-04 ± 2,01E-04 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7,80E+02 ± 2,21E+02 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2,73E+00 ± 3,51E+00 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7,23E-03 ± 8,5E-03 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7,46E+00 ± 2,70E+00 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6,00E-05 ± 5,96E-05 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1,72E+02 ± 1,05E+02 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8,62E-01 ± 7,19E-01 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.0000E+00"/>
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.0E+00"/>
     <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="178" formatCode="0.0E+00"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +690,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -222,8 +729,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,27 +814,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,7 +838,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,67 +859,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -360,7 +867,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,13 +894,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,19 +1020,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,13 +1062,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,122 +1072,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="33">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -576,70 +1083,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
         <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
       </left>
       <right style="thin">
         <color auto="true"/>
       </right>
       <top style="thin">
-        <color theme="0"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color auto="true"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,19 +1110,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0"/>
       </left>
@@ -679,96 +1119,6 @@
       <top style="thin">
         <color theme="0"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
@@ -856,17 +1206,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="true"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,15 +1250,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,6 +1269,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -918,445 +1303,323 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="27" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="32" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="18" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="32" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="29" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2962,489 +3225,489 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="79" t="s">
+      <c r="K2" s="55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="37" customHeight="true" spans="2:11">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="75">
+      <c r="D3" s="51">
         <v>7</v>
       </c>
-      <c r="E3" s="75">
+      <c r="E3" s="51">
         <v>9</v>
       </c>
-      <c r="F3" s="75">
+      <c r="F3" s="51">
         <v>9</v>
       </c>
-      <c r="G3" s="75">
+      <c r="G3" s="51">
         <v>6</v>
       </c>
-      <c r="H3" s="75">
+      <c r="H3" s="51">
         <v>7</v>
       </c>
-      <c r="I3" s="79">
+      <c r="I3" s="55">
         <f>AVERAGE(D3:H3)</f>
         <v>7.6</v>
       </c>
-      <c r="J3" s="79">
+      <c r="J3" s="55">
         <f>MEDIAN(D3:H3)</f>
         <v>7</v>
       </c>
-      <c r="K3" s="79">
+      <c r="K3" s="55">
         <f>MODE(D3:H3)</f>
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="38" customHeight="true" spans="2:11">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="75">
+      <c r="D4" s="51">
         <v>4</v>
       </c>
-      <c r="E4" s="75">
+      <c r="E4" s="51">
         <v>4</v>
       </c>
-      <c r="F4" s="75">
+      <c r="F4" s="51">
         <v>4</v>
       </c>
-      <c r="G4" s="75">
+      <c r="G4" s="51">
         <v>2</v>
       </c>
-      <c r="H4" s="75">
+      <c r="H4" s="51">
         <v>3</v>
       </c>
-      <c r="I4" s="79">
+      <c r="I4" s="55">
         <f t="shared" ref="I4:I11" si="0">AVERAGE(D4:H4)</f>
         <v>3.4</v>
       </c>
-      <c r="J4" s="79">
+      <c r="J4" s="55">
         <f t="shared" ref="J4:J11" si="1">MEDIAN(D4:H4)</f>
         <v>4</v>
       </c>
-      <c r="K4" s="79">
+      <c r="K4" s="55">
         <f t="shared" ref="K4:K11" si="2">MODE(D4:H4)</f>
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="42.75" spans="2:11">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="75">
+      <c r="D5" s="51">
         <v>8</v>
       </c>
-      <c r="E5" s="75">
+      <c r="E5" s="51">
         <v>8</v>
       </c>
-      <c r="F5" s="75">
+      <c r="F5" s="51">
         <v>8</v>
       </c>
-      <c r="G5" s="75">
+      <c r="G5" s="51">
         <v>5</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="51">
         <v>9</v>
       </c>
-      <c r="I5" s="79">
+      <c r="I5" s="55">
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="J5" s="79">
+      <c r="J5" s="55">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K5" s="79">
+      <c r="K5" s="55">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="42.75" spans="2:11">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="75">
+      <c r="D6" s="51">
         <v>6</v>
       </c>
-      <c r="E6" s="75">
+      <c r="E6" s="51">
         <v>6</v>
       </c>
-      <c r="F6" s="75">
+      <c r="F6" s="51">
         <v>6</v>
       </c>
-      <c r="G6" s="75">
+      <c r="G6" s="51">
         <v>3</v>
       </c>
-      <c r="H6" s="75">
+      <c r="H6" s="51">
         <v>8</v>
       </c>
-      <c r="I6" s="79">
+      <c r="I6" s="55">
         <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
-      <c r="J6" s="79">
+      <c r="J6" s="55">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K6" s="79">
+      <c r="K6" s="55">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="42.75" spans="2:11">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="75">
+      <c r="D7" s="51">
         <v>9</v>
       </c>
-      <c r="E7" s="75">
+      <c r="E7" s="51">
         <v>7</v>
       </c>
-      <c r="F7" s="75">
+      <c r="F7" s="51">
         <v>7</v>
       </c>
-      <c r="G7" s="75">
+      <c r="G7" s="51">
         <v>4</v>
       </c>
-      <c r="H7" s="75">
+      <c r="H7" s="51">
         <v>6</v>
       </c>
-      <c r="I7" s="79">
+      <c r="I7" s="55">
         <f t="shared" si="0"/>
         <v>6.6</v>
       </c>
-      <c r="J7" s="79">
+      <c r="J7" s="55">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K7" s="79">
+      <c r="K7" s="55">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="2:11">
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="75">
+      <c r="D8" s="51">
         <v>5</v>
       </c>
-      <c r="E8" s="75">
+      <c r="E8" s="51">
         <v>5</v>
       </c>
-      <c r="F8" s="75">
+      <c r="F8" s="51">
         <v>5</v>
       </c>
-      <c r="G8" s="75">
+      <c r="G8" s="51">
         <v>1</v>
       </c>
-      <c r="H8" s="75">
+      <c r="H8" s="51">
         <v>4</v>
       </c>
-      <c r="I8" s="79">
+      <c r="I8" s="55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J8" s="79">
+      <c r="J8" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K8" s="79">
+      <c r="K8" s="55">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="2:11">
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="51">
         <v>2</v>
       </c>
-      <c r="E9" s="75">
+      <c r="E9" s="51">
         <v>2</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="51">
         <v>2</v>
       </c>
-      <c r="G9" s="75">
+      <c r="G9" s="51">
         <v>7</v>
       </c>
-      <c r="H9" s="75">
+      <c r="H9" s="51">
         <v>1</v>
       </c>
-      <c r="I9" s="79">
+      <c r="I9" s="55">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="J9" s="79">
+      <c r="J9" s="55">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K9" s="79">
+      <c r="K9" s="55">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="10" ht="42.75" spans="2:11">
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="75">
+      <c r="D10" s="51">
         <v>3</v>
       </c>
-      <c r="E10" s="75">
+      <c r="E10" s="51">
         <v>3</v>
       </c>
-      <c r="F10" s="75">
+      <c r="F10" s="51">
         <v>3</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="51">
         <v>8</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="51">
         <v>5</v>
       </c>
-      <c r="I10" s="79">
+      <c r="I10" s="55">
         <f t="shared" si="0"/>
         <v>4.4</v>
       </c>
-      <c r="J10" s="79">
+      <c r="J10" s="55">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K10" s="79">
+      <c r="K10" s="55">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="11" ht="42.75" spans="2:11">
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="75">
+      <c r="D11" s="51">
         <v>1</v>
       </c>
-      <c r="E11" s="75">
+      <c r="E11" s="51">
         <v>1</v>
       </c>
-      <c r="F11" s="75">
+      <c r="F11" s="51">
         <v>1</v>
       </c>
-      <c r="G11" s="75">
+      <c r="G11" s="51">
         <v>9</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="51">
         <v>2</v>
       </c>
-      <c r="I11" s="79">
+      <c r="I11" s="55">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="J11" s="79">
+      <c r="J11" s="55">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K11" s="79">
+      <c r="K11" s="55">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="78">
+      <c r="C14" s="54">
         <v>2.8</v>
       </c>
-      <c r="D14" s="75">
+      <c r="D14" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="54">
         <v>2.8</v>
       </c>
-      <c r="D15" s="75">
+      <c r="D15" s="51">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="75">
+      <c r="C16" s="51">
         <v>3.4</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="51">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="75">
+      <c r="C17" s="51">
         <v>4</v>
       </c>
-      <c r="D17" s="75">
+      <c r="D17" s="51">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="75">
+      <c r="C18" s="51">
         <v>4.4</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="75">
+      <c r="C19" s="51">
         <v>5.8</v>
       </c>
-      <c r="D19" s="75">
+      <c r="D19" s="51">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="75">
+      <c r="C20" s="51">
         <v>6.6</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="51">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="75">
+      <c r="C21" s="51">
         <v>7.6</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="51">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="75">
+      <c r="C22" s="51">
         <v>7.6</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="51">
         <v>8</v>
       </c>
     </row>
@@ -3476,142 +3739,142 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="50" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="75">
+      <c r="C3" s="51">
         <v>4</v>
       </c>
-      <c r="D3" s="75">
+      <c r="D3" s="51">
         <v>6</v>
       </c>
-      <c r="E3" s="75">
+      <c r="E3" s="51">
         <v>6</v>
       </c>
-      <c r="F3" s="75">
+      <c r="F3" s="51">
         <v>6</v>
       </c>
-      <c r="G3" s="75">
+      <c r="G3" s="51">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="75">
+      <c r="C4" s="51">
         <v>1</v>
       </c>
-      <c r="D4" s="75">
+      <c r="D4" s="51">
         <v>1</v>
       </c>
-      <c r="E4" s="75">
+      <c r="E4" s="51">
         <v>1</v>
       </c>
-      <c r="F4" s="75">
+      <c r="F4" s="51">
         <v>2</v>
       </c>
-      <c r="G4" s="75">
+      <c r="G4" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="75">
+      <c r="C5" s="51">
         <v>5</v>
       </c>
-      <c r="D5" s="75">
+      <c r="D5" s="51">
         <v>5</v>
       </c>
-      <c r="E5" s="75">
+      <c r="E5" s="51">
         <v>5</v>
       </c>
-      <c r="F5" s="75">
+      <c r="F5" s="51">
         <v>5</v>
       </c>
-      <c r="G5" s="75">
+      <c r="G5" s="51">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="75">
+      <c r="C6" s="51">
         <v>3</v>
       </c>
-      <c r="D6" s="75">
+      <c r="D6" s="51">
         <v>3</v>
       </c>
-      <c r="E6" s="75">
+      <c r="E6" s="51">
         <v>3</v>
       </c>
-      <c r="F6" s="75">
+      <c r="F6" s="51">
         <v>3</v>
       </c>
-      <c r="G6" s="75">
+      <c r="G6" s="51">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="75">
+      <c r="C7" s="51">
         <v>6</v>
       </c>
-      <c r="D7" s="75">
+      <c r="D7" s="51">
         <v>4</v>
       </c>
-      <c r="E7" s="75">
+      <c r="E7" s="51">
         <v>4</v>
       </c>
-      <c r="F7" s="75">
+      <c r="F7" s="51">
         <v>4</v>
       </c>
-      <c r="G7" s="75">
+      <c r="G7" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="75">
+      <c r="C8" s="51">
         <v>2</v>
       </c>
-      <c r="D8" s="75">
+      <c r="D8" s="51">
         <v>2</v>
       </c>
-      <c r="E8" s="75">
+      <c r="E8" s="51">
         <v>2</v>
       </c>
-      <c r="F8" s="75">
+      <c r="F8" s="51">
         <v>1</v>
       </c>
-      <c r="G8" s="75">
+      <c r="G8" s="51">
         <v>2</v>
       </c>
     </row>
@@ -3625,754 +3888,1436 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC32"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:R23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.81666666666667" customWidth="true"/>
-    <col min="2" max="2" width="13.375" customWidth="true"/>
-    <col min="3" max="3" width="8.21666666666667" customWidth="true"/>
+    <col min="2" max="2" width="9.85" customWidth="true"/>
+    <col min="3" max="3" width="8.225" customWidth="true"/>
     <col min="4" max="4" width="1.15" customWidth="true"/>
     <col min="5" max="5" width="7.5" customWidth="true"/>
-    <col min="6" max="6" width="5.75" customWidth="true"/>
-    <col min="7" max="7" width="2.625" customWidth="true"/>
-    <col min="8" max="8" width="10.25" customWidth="true"/>
+    <col min="6" max="6" width="2.125" customWidth="true"/>
+    <col min="7" max="7" width="1.175" customWidth="true"/>
+    <col min="8" max="8" width="8.675" customWidth="true"/>
     <col min="9" max="9" width="1.34166666666667" customWidth="true"/>
-    <col min="10" max="10" width="9.23333333333333" customWidth="true"/>
-    <col min="11" max="11" width="5.75" customWidth="true"/>
-    <col min="12" max="12" width="2.625" customWidth="true"/>
-    <col min="13" max="13" width="10.25" customWidth="true"/>
+    <col min="10" max="10" width="8.675" customWidth="true"/>
+    <col min="11" max="11" width="2.125" customWidth="true"/>
+    <col min="12" max="12" width="1.175" customWidth="true"/>
+    <col min="13" max="13" width="8.375" customWidth="true"/>
     <col min="14" max="14" width="1.15" customWidth="true"/>
     <col min="15" max="15" width="8.225" customWidth="true"/>
-    <col min="16" max="16" width="5.75" customWidth="true"/>
-    <col min="17" max="17" width="2.625" customWidth="true"/>
-    <col min="18" max="18" width="10.25" customWidth="true"/>
+    <col min="16" max="16" width="2.125" customWidth="true"/>
+    <col min="17" max="17" width="1.175" customWidth="true"/>
+    <col min="18" max="18" width="8.675" customWidth="true"/>
     <col min="19" max="19" width="1.05" customWidth="true"/>
     <col min="20" max="20" width="8.36666666666667" customWidth="true"/>
-    <col min="21" max="21" width="5.75" customWidth="true"/>
-    <col min="22" max="22" width="2.625" customWidth="true"/>
-    <col min="23" max="23" width="10.25" customWidth="true"/>
+    <col min="21" max="21" width="2.35" customWidth="true"/>
+    <col min="22" max="22" width="1.31666666666667" customWidth="true"/>
+    <col min="23" max="23" width="8.81666666666667" customWidth="true"/>
     <col min="24" max="24" width="1.15" customWidth="true"/>
     <col min="25" max="25" width="8.825" customWidth="true"/>
-    <col min="26" max="26" width="5.75" customWidth="true"/>
+    <col min="26" max="26" width="2.35" customWidth="true"/>
     <col min="27" max="27" width="2.625" customWidth="true"/>
     <col min="29" max="29" width="4.10833333333333" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="true" spans="1:29">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AC1" s="60"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AC1" s="22"/>
     </row>
     <row r="2" ht="27" customHeight="true" spans="1:29">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="53" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="53" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="53" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="53" t="s">
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="53" t="s">
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="59" t="s">
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AC2" s="27"/>
+      <c r="AC2" s="8"/>
     </row>
     <row r="3" ht="24" customHeight="true" spans="1:29">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="55" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="55" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="55" t="s">
+      <c r="L3" s="8"/>
+      <c r="M3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="56"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62" t="s">
+      <c r="N3" s="12"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="55" t="s">
+      <c r="Q3" s="8"/>
+      <c r="R3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="S3" s="56"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="62" t="s">
+      <c r="S3" s="12"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="27"/>
-      <c r="W3" s="55" t="s">
+      <c r="V3" s="8"/>
+      <c r="W3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="62" t="s">
+      <c r="X3" s="12"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="62" t="s">
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AC3" s="60"/>
+      <c r="AC3" s="22"/>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="50">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="13">
         <v>0.132</v>
       </c>
-      <c r="D4" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="63">
+      <c r="D4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="25">
         <v>0.0965063776002464</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="22">
         <v>4</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="50">
+      <c r="G4" s="22"/>
+      <c r="H4" s="13">
         <v>19.273</v>
       </c>
-      <c r="I4" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="67">
+      <c r="I4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="36">
         <v>4.36737875829437</v>
       </c>
-      <c r="K4" s="60">
+      <c r="K4" s="22">
         <v>4</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="52">
+      <c r="L4" s="22"/>
+      <c r="M4" s="41">
         <v>3.19134547909331e-5</v>
       </c>
-      <c r="N4" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="69">
+      <c r="N4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="40">
         <v>4.53693404059032e-5</v>
       </c>
-      <c r="P4" s="70">
+      <c r="P4" s="42">
         <v>1</v>
       </c>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="50">
+      <c r="Q4" s="22"/>
+      <c r="R4" s="13">
         <v>536.477</v>
       </c>
-      <c r="S4" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="67">
+      <c r="S4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="36">
         <v>196.069181001229</v>
       </c>
-      <c r="U4" s="60">
+      <c r="U4" s="22">
         <v>4</v>
       </c>
-      <c r="V4" s="60"/>
-      <c r="W4" s="52">
+      <c r="V4" s="22"/>
+      <c r="W4" s="41">
         <v>0.276</v>
       </c>
-      <c r="X4" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y4" s="69">
+      <c r="X4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" s="40">
         <v>0.798042531991864</v>
       </c>
-      <c r="Z4" s="70">
+      <c r="Z4" s="42">
         <v>2</v>
       </c>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60">
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22">
         <f t="shared" ref="AB4:AB9" si="0">AVERAGE(F4,K4,P4,U4,Z4)</f>
         <v>3</v>
       </c>
-      <c r="AC4" s="27"/>
+      <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="15">
         <v>0.009</v>
       </c>
-      <c r="D5" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="64">
+      <c r="D5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="26">
         <v>0.0122558806800694</v>
       </c>
-      <c r="F5" s="65">
+      <c r="F5" s="27">
         <v>2</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="38">
+      <c r="G5" s="8"/>
+      <c r="H5" s="15">
         <v>8.206</v>
       </c>
-      <c r="I5" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="68">
+      <c r="I5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="37">
         <v>3.16209259736571</v>
       </c>
-      <c r="K5" s="65">
+      <c r="K5" s="27">
         <v>1</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="37">
+      <c r="L5" s="8"/>
+      <c r="M5" s="17">
         <v>4.64721586113555e-5</v>
       </c>
-      <c r="N5" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="71">
+      <c r="N5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="43">
         <v>3.52283254856238e-5</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="8">
         <v>4</v>
       </c>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="38">
+      <c r="Q5" s="8"/>
+      <c r="R5" s="15">
         <v>168.007</v>
       </c>
-      <c r="S5" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="T5" s="34">
+      <c r="S5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="46">
         <v>108.236426929137</v>
       </c>
-      <c r="U5" s="65">
+      <c r="U5" s="27">
         <v>2</v>
       </c>
-      <c r="V5" s="27"/>
-      <c r="W5" s="38">
+      <c r="V5" s="8"/>
+      <c r="W5" s="15">
         <v>0.2</v>
       </c>
-      <c r="X5" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y5" s="69">
+      <c r="X5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" s="40">
         <v>0.531586549460241</v>
       </c>
-      <c r="Z5" s="65">
+      <c r="Z5" s="27">
         <v>1</v>
       </c>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="70">
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AC5" s="27"/>
+      <c r="AC5" s="8"/>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="17">
         <v>0.996</v>
       </c>
-      <c r="D6" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="63">
+      <c r="D6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="25">
         <v>0.579582288921128</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="8">
         <v>5</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="37">
+      <c r="G6" s="8"/>
+      <c r="H6" s="17">
         <v>23.297</v>
       </c>
-      <c r="I6" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="67">
+      <c r="I6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="36">
         <v>8.49956838329015</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="8">
         <v>5</v>
       </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="37">
+      <c r="L6" s="8"/>
+      <c r="M6" s="17">
         <v>0.000103390053282981</v>
       </c>
-      <c r="N6" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="71">
+      <c r="N6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="43">
         <v>0.000149680503438306</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="8">
         <v>5</v>
       </c>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="37">
+      <c r="Q6" s="8"/>
+      <c r="R6" s="17">
         <v>689.955</v>
       </c>
-      <c r="S6" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="T6" s="67">
+      <c r="S6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" s="36">
         <v>246.763475736191</v>
       </c>
-      <c r="U6" s="27">
+      <c r="U6" s="8">
         <v>5</v>
       </c>
-      <c r="V6" s="27"/>
-      <c r="W6" s="37">
+      <c r="V6" s="8"/>
+      <c r="W6" s="17">
         <v>5.752</v>
       </c>
-      <c r="X6" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y6" s="71">
+      <c r="X6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y6" s="43">
         <v>3.69881847868128</v>
       </c>
-      <c r="Z6" s="27">
+      <c r="Z6" s="8">
         <v>6</v>
       </c>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="60">
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="22">
         <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
-      <c r="AC6" s="27"/>
+      <c r="AC6" s="8"/>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="17">
         <v>0.088</v>
       </c>
-      <c r="D7" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="63">
+      <c r="D7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="25">
         <v>0.0657868338421766</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="8">
         <v>3</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="37">
+      <c r="G7" s="8"/>
+      <c r="H7" s="17">
         <v>15.849</v>
       </c>
-      <c r="I7" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="67">
+      <c r="I7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="36">
         <v>4.63424091289783</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="8">
         <v>3</v>
       </c>
-      <c r="L7" s="27"/>
-      <c r="M7" s="38">
+      <c r="L7" s="8"/>
+      <c r="M7" s="15">
         <v>4.16744416210794e-5</v>
       </c>
-      <c r="N7" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="69">
+      <c r="N7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="40">
         <v>4.13442717575075e-5</v>
       </c>
-      <c r="P7" s="65">
+      <c r="P7" s="27">
         <v>2</v>
       </c>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="37">
+      <c r="Q7" s="8"/>
+      <c r="R7" s="17">
         <v>525.29</v>
       </c>
-      <c r="S7" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="T7" s="11">
+      <c r="S7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7" s="47">
         <v>179.800681426741</v>
       </c>
-      <c r="U7" s="27">
+      <c r="U7" s="8">
         <v>3</v>
       </c>
-      <c r="V7" s="27"/>
-      <c r="W7" s="37">
+      <c r="V7" s="8"/>
+      <c r="W7" s="17">
         <v>0.645</v>
       </c>
-      <c r="X7" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y7" s="71">
+      <c r="X7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y7" s="43">
         <v>0.763103960603693</v>
       </c>
-      <c r="Z7" s="27">
+      <c r="Z7" s="8">
         <v>3</v>
       </c>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="60">
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="22">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="AC7" s="27"/>
+      <c r="AC7" s="8"/>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="17">
         <v>1.787</v>
       </c>
-      <c r="D8" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="63">
+      <c r="D8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="25">
         <v>1.84905922972114</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="8">
         <v>6</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="37">
+      <c r="G8" s="8"/>
+      <c r="H8" s="17">
         <v>26.581</v>
       </c>
-      <c r="I8" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="67">
+      <c r="I8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="36">
         <v>9.62226037415531</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="8">
         <v>6</v>
       </c>
-      <c r="L8" s="27"/>
-      <c r="M8" s="37">
+      <c r="L8" s="8"/>
+      <c r="M8" s="17">
         <v>0.000165280623744032</v>
       </c>
-      <c r="N8" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="71">
+      <c r="N8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="43">
         <v>0.000243528763630911</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="8">
         <v>6</v>
       </c>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="37">
+      <c r="Q8" s="8"/>
+      <c r="R8" s="17">
         <v>793.303</v>
       </c>
-      <c r="S8" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="T8" s="67">
+      <c r="S8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="T8" s="36">
         <v>150.270527086389</v>
       </c>
-      <c r="U8" s="27">
+      <c r="U8" s="8">
         <v>6</v>
       </c>
-      <c r="V8" s="27"/>
-      <c r="W8" s="37">
+      <c r="V8" s="8"/>
+      <c r="W8" s="17">
         <v>2.704</v>
       </c>
-      <c r="X8" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y8" s="71">
+      <c r="X8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y8" s="43">
         <v>3.5720431699787</v>
       </c>
-      <c r="Z8" s="27">
+      <c r="Z8" s="8">
         <v>5</v>
       </c>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="60">
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="22">
         <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
-      <c r="AC8" s="27"/>
+      <c r="AC8" s="8"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="15">
         <v>0.007</v>
       </c>
-      <c r="D9" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="64">
+      <c r="D9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="26">
         <v>0.00678518699644487</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="27">
         <v>1</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="38">
+      <c r="G9" s="8"/>
+      <c r="H9" s="15">
         <v>8.249</v>
       </c>
-      <c r="I9" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="68">
+      <c r="I9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="37">
         <v>2.66170675596635</v>
       </c>
-      <c r="K9" s="65">
+      <c r="K9" s="27">
         <v>2</v>
       </c>
-      <c r="L9" s="27"/>
-      <c r="M9" s="37">
+      <c r="L9" s="8"/>
+      <c r="M9" s="17">
         <v>4.35533283922469e-5</v>
       </c>
-      <c r="N9" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="71">
+      <c r="N9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="43">
         <v>4.94646892158851e-5</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="8">
         <v>3</v>
       </c>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="38">
+      <c r="Q9" s="8"/>
+      <c r="R9" s="15">
         <v>151.254</v>
       </c>
-      <c r="S9" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="T9" s="34">
+      <c r="S9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T9" s="46">
         <v>103.795401126775</v>
       </c>
-      <c r="U9" s="65">
+      <c r="U9" s="27">
         <v>1</v>
       </c>
-      <c r="V9" s="27"/>
-      <c r="W9" s="37">
+      <c r="V9" s="8"/>
+      <c r="W9" s="17">
         <v>0.963</v>
       </c>
-      <c r="X9" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y9" s="71">
+      <c r="X9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y9" s="43">
         <v>0.742071728255402</v>
       </c>
-      <c r="Z9" s="27">
+      <c r="Z9" s="8">
         <v>4</v>
       </c>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="70">
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="42">
         <f t="shared" si="0"/>
         <v>2.2</v>
       </c>
-      <c r="AC9" s="27"/>
+      <c r="AC9" s="8"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="27"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="8"/>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
     </row>
     <row r="13" spans="8:12">
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13"/>
-      <c r="L13" s="26"/>
-    </row>
-    <row r="14" spans="8:9">
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-    </row>
-    <row r="19" spans="11:11">
-      <c r="K19" s="66"/>
-    </row>
-    <row r="25" spans="14:18">
-      <c r="N25" s="66"/>
-      <c r="O25"/>
-      <c r="P25" s="66"/>
-      <c r="Q25"/>
-      <c r="R25" s="66"/>
-    </row>
-    <row r="27" spans="13:13">
-      <c r="M27" s="66"/>
-    </row>
-    <row r="28" spans="13:13">
-      <c r="M28" s="66"/>
-    </row>
-    <row r="30" spans="13:13">
-      <c r="M30" s="66"/>
-    </row>
-    <row r="32" spans="13:13">
-      <c r="M32" s="66"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="L13" s="38"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="7"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.114747845625917</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0.0684432760067935</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="18">
+        <v>19.6272217654338</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="39">
+        <v>5.327205749671</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="31"/>
+      <c r="M16" s="18">
+        <v>4.55652312635843e-5</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="39">
+        <v>5.0571838413492e-5</v>
+      </c>
+      <c r="P16" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="18">
+        <v>524.062381716945</v>
+      </c>
+      <c r="S16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="T16" s="48">
+        <v>203.075140130466</v>
+      </c>
+      <c r="U16" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="V16" s="31"/>
+      <c r="W16" s="18">
+        <v>0.58100670103607</v>
+      </c>
+      <c r="X16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y16" s="39">
+        <v>0.822959171889959</v>
+      </c>
+      <c r="Z16" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="20">
+        <v>0.0124808462079064</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="29">
+        <v>0.0131805075558143</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="20">
+        <v>8.96490632339721</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="39">
+        <v>2.75855365951938</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="33"/>
+      <c r="M17" s="20">
+        <v>4.18960602378896e-5</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" s="39">
+        <v>3.92664893129244e-5</v>
+      </c>
+      <c r="P17" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="20">
+        <v>194.075879224546</v>
+      </c>
+      <c r="S17" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17" s="49">
+        <v>125.897671391498</v>
+      </c>
+      <c r="U17" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="V17" s="33"/>
+      <c r="W17" s="15">
+        <v>0.158863878668073</v>
+      </c>
+      <c r="X17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y17" s="40">
+        <v>0.468283259433261</v>
+      </c>
+      <c r="Z17" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="20">
+        <v>1.05159177989402</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="29">
+        <v>0.611622928892933</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="20">
+        <v>21.9147590599884</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="39">
+        <v>7.5814931282509</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="33"/>
+      <c r="M18" s="20">
+        <v>0.000108779608432157</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18" s="39">
+        <v>0.000109994849086413</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="20">
+        <v>677.637046625668</v>
+      </c>
+      <c r="S18" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="T18" s="48">
+        <v>258.237746993981</v>
+      </c>
+      <c r="U18" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="V18" s="33"/>
+      <c r="W18" s="20">
+        <v>5.84244063013593</v>
+      </c>
+      <c r="X18" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y18" s="39">
+        <v>3.08203297399199</v>
+      </c>
+      <c r="Z18" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="20">
+        <v>0.0874221668089744</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="29">
+        <v>0.0582475511981321</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="20">
+        <v>16.589514851023</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="39">
+        <v>4.77978244572968</v>
+      </c>
+      <c r="K19" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="33"/>
+      <c r="M19" s="15">
+        <v>2.88602719669648e-5</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="40">
+        <v>3.61923534155067e-5</v>
+      </c>
+      <c r="P19" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="20">
+        <v>494.569825205012</v>
+      </c>
+      <c r="S19" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="T19" s="49">
+        <v>152.911310080766</v>
+      </c>
+      <c r="U19" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="V19" s="33"/>
+      <c r="W19" s="20">
+        <v>0.593830166653466</v>
+      </c>
+      <c r="X19" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y19" s="39">
+        <v>0.73938605960129</v>
+      </c>
+      <c r="Z19" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="20">
+        <v>2.27881585519321</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="29">
+        <v>2.26530329503765</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="20">
+        <v>28.9257152387503</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="39">
+        <v>10.7084034758881</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="33"/>
+      <c r="M20" s="20">
+        <v>0.000161182677815521</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" s="39">
+        <v>0.000201454522136078</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="20">
+        <v>780.263415300589</v>
+      </c>
+      <c r="S20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="T20" s="48">
+        <v>221.178220897061</v>
+      </c>
+      <c r="U20" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="V20" s="33"/>
+      <c r="W20" s="20">
+        <v>2.72833698273227</v>
+      </c>
+      <c r="X20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y20" s="39">
+        <v>3.51381108641982</v>
+      </c>
+      <c r="Z20" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0.00722520327319471</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="26">
+        <v>0.00848600342988601</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="15">
+        <v>7.45875253602551</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="40">
+        <v>2.70397065899332</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="33"/>
+      <c r="M21" s="20">
+        <v>6.00430497488383e-5</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O21" s="39">
+        <v>5.96314998905934e-5</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="15">
+        <v>172.127171551962</v>
+      </c>
+      <c r="S21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T21" s="46">
+        <v>105.271594851877</v>
+      </c>
+      <c r="U21" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="33"/>
+      <c r="W21" s="20">
+        <v>0.862131530155452</v>
+      </c>
+      <c r="X21" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y21" s="39">
+        <v>0.719304039555283</v>
+      </c>
+      <c r="Z21" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="23"/>
+      <c r="M26" s="28"/>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="C27" s="13">
+        <v>0.132</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="25">
+        <v>0.0965063776002464</v>
+      </c>
+      <c r="M27" s="28"/>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="15">
+        <v>0.009</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="26">
+        <v>0.0122558806800694</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" s="17">
+        <v>0.996</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="25">
+        <v>0.579582288921128</v>
+      </c>
+      <c r="M29" s="28"/>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="17">
+        <v>0.088</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="25">
+        <v>0.0657868338421766</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13">
+      <c r="C31" s="17">
+        <v>1.787</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="25">
+        <v>1.84905922972114</v>
+      </c>
+      <c r="M31" s="28"/>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="15">
+        <v>0.007</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="26">
+        <v>0.00678518699644487</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="18">
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="M2:P2"/>
@@ -4383,6 +5328,14 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="C14:Z14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4392,1163 +5345,188 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:Y20"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F8" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="6.31666666666667" customWidth="true"/>
-    <col min="2" max="2" width="10.25" customWidth="true"/>
-    <col min="3" max="3" width="8.21666666666667" customWidth="true"/>
-    <col min="4" max="4" width="1.15" customWidth="true"/>
-    <col min="5" max="5" width="8.825" customWidth="true"/>
-    <col min="6" max="6" width="1.73333333333333" customWidth="true"/>
-    <col min="7" max="7" width="9.25" customWidth="true"/>
-    <col min="8" max="8" width="2.375" customWidth="true"/>
-    <col min="9" max="9" width="8.525" customWidth="true"/>
-    <col min="10" max="10" width="1.30833333333333" customWidth="true"/>
-    <col min="11" max="11" width="9.25" customWidth="true"/>
-    <col min="12" max="12" width="2.375" customWidth="true"/>
-    <col min="13" max="13" width="8.75" customWidth="true"/>
-    <col min="14" max="14" width="1.40833333333333" customWidth="true"/>
-    <col min="15" max="15" width="9.25" customWidth="true"/>
-    <col min="16" max="16" width="1.95833333333333" customWidth="true"/>
-    <col min="17" max="17" width="8.675" customWidth="true"/>
-    <col min="18" max="18" width="1.175" customWidth="true"/>
-    <col min="19" max="19" width="9.25" customWidth="true"/>
-    <col min="20" max="20" width="1.46666666666667" customWidth="true"/>
-    <col min="21" max="21" width="8.525" customWidth="true"/>
-    <col min="22" max="22" width="2.625" customWidth="true"/>
-    <col min="23" max="23" width="10.25" customWidth="true"/>
-    <col min="24" max="24" width="1.15" customWidth="true"/>
-    <col min="25" max="25" width="8.525" customWidth="true"/>
-    <col min="26" max="26" width="5.75" customWidth="true"/>
-    <col min="27" max="27" width="2.625" customWidth="true"/>
+    <col min="1" max="1" width="10.625" customWidth="true"/>
+    <col min="2" max="2" width="20.125" customWidth="true"/>
+    <col min="3" max="3" width="22.125" customWidth="true"/>
+    <col min="4" max="4" width="20.875" customWidth="true"/>
+    <col min="5" max="6" width="21.25" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="true" spans="1:28">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="27"/>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="B1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-    </row>
-    <row r="3" ht="25" customHeight="true" spans="1:28">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="45" t="s">
+      <c r="B4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="45" t="s">
+      <c r="B5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.132</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="28">
-        <v>0.0965063776002464</v>
-      </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30">
-        <v>0.009</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="46">
-        <v>0.0122558806800694</v>
-      </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="6">
-        <v>0.996</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="28">
-        <v>0.579582288921128</v>
-      </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="50">
-        <v>0.088</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="28">
-        <v>0.0657868338421766</v>
-      </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="50">
-        <v>1.787</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="U4" s="28">
-        <v>1.84905922972114</v>
-      </c>
-      <c r="V4" s="12"/>
-      <c r="W4" s="52">
-        <v>0.007</v>
-      </c>
-      <c r="X4" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y4" s="46">
-        <v>0.00678518699644487</v>
-      </c>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="8">
-        <v>4</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="16">
-        <v>2</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="47">
-        <v>5</v>
-      </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47">
-        <v>3</v>
-      </c>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="9">
-        <v>6</v>
-      </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="16">
-        <v>1</v>
-      </c>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-    </row>
-    <row r="6" spans="1:28">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="A7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="10">
-        <v>19.273</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="33">
-        <v>4.36737875829437</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="34">
-        <v>8.206</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="36">
-        <v>3.16209259736571</v>
-      </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="11">
-        <v>23.297</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="48">
-        <v>8.49956838329015</v>
-      </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="37">
-        <v>15.849</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="33">
-        <v>4.63424091289783</v>
-      </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="37">
-        <v>26.581</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U7" s="35">
-        <v>9.62226037415531</v>
-      </c>
-      <c r="V7" s="12"/>
-      <c r="W7" s="38">
-        <v>8.249</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y7" s="36">
-        <v>2.66170675596635</v>
-      </c>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="A8" s="3"/>
-      <c r="B8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="8">
-        <v>4</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="16">
-        <v>1</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="9">
-        <v>5</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="9">
-        <v>3</v>
-      </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="9">
-        <v>6</v>
-      </c>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="16">
-        <v>2</v>
-      </c>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="A10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="13">
-        <v>3.19134547909331e-5</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="36">
-        <v>4.53693404059032e-5</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="37">
-        <v>4.64721586113555e-5</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="48">
-        <v>3.52283254856238e-5</v>
-      </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="37">
-        <v>0.000103390053282981</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="48">
-        <v>0.000149680503438306</v>
-      </c>
-      <c r="N10" s="12"/>
-      <c r="O10" s="38">
-        <v>4.16744416210794e-5</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="36">
-        <v>4.13442717575075e-5</v>
-      </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="37">
-        <v>0.000165280623744032</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" s="48">
-        <v>0.000243528763630911</v>
-      </c>
-      <c r="V10" s="12"/>
-      <c r="W10" s="37">
-        <v>4.35533283922469e-5</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y10" s="48">
-        <v>4.94646892158851e-5</v>
-      </c>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="A11" s="3"/>
-      <c r="B11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="15">
-        <v>1</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9">
-        <v>4</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="9">
-        <v>5</v>
-      </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="16">
-        <v>2</v>
-      </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="9">
-        <v>6</v>
-      </c>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="9">
-        <v>3</v>
-      </c>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-    </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="A13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="17">
-        <v>536.477</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="26">
-        <v>196.069181001229</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="38">
-        <v>168.007</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="49">
-        <v>108.236426929137</v>
-      </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="37">
-        <v>689.955</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" s="26">
-        <v>246.763475736191</v>
-      </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="37">
-        <v>525.29</v>
-      </c>
-      <c r="P13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q13" s="26">
-        <v>179.800681426741</v>
-      </c>
-      <c r="R13" s="12"/>
-      <c r="S13" s="37">
-        <v>793.303</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U13" s="26">
-        <v>150.270527086389</v>
-      </c>
-      <c r="V13" s="12"/>
-      <c r="W13" s="38">
-        <v>151.254</v>
-      </c>
-      <c r="X13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y13" s="49">
-        <v>103.795401126775</v>
-      </c>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="A14" s="3"/>
-      <c r="B14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="8">
-        <v>4</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="16">
-        <v>2</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="9">
-        <v>5</v>
-      </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="9">
-        <v>3</v>
-      </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="9">
-        <v>6</v>
-      </c>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="16">
-        <v>1</v>
-      </c>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="18">
-        <v>0.276</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="38">
-        <v>0.2</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="37">
-        <v>5.752</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="M16" s="51"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="37">
-        <v>0.645</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="37">
-        <v>2.704</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U16" s="51"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="37">
-        <v>0.963</v>
-      </c>
-      <c r="X16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="3"/>
-      <c r="B17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="15">
-        <v>2</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="16">
-        <v>1</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="9">
-        <v>6</v>
-      </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="9">
-        <v>3</v>
-      </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="9">
-        <v>5</v>
-      </c>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="9">
-        <v>4</v>
-      </c>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="12"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-    </row>
-    <row r="19" spans="1:28">
-      <c r="A19" s="12"/>
-      <c r="B19" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="21">
-        <f>AVERAGE(C5,C8,C11,C14,C17)</f>
-        <v>3</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42">
-        <f>AVERAGE(G5,G8,G11,G14,G17)</f>
-        <v>2</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42">
-        <f>AVERAGE(K5,K8,K11,K14,K17)</f>
-        <v>5.2</v>
-      </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="42">
-        <f>AVERAGE(O5,O8,O11,O14,O17)</f>
-        <v>2.8</v>
-      </c>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="42">
-        <f>AVERAGE(S5,S8,S11,S14,S17)</f>
-        <v>5.8</v>
-      </c>
-      <c r="T19" s="22"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="42">
-        <f>AVERAGE(W5,W8,W11,W14,W17)</f>
-        <v>2.2</v>
-      </c>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-    </row>
-    <row r="20" spans="1:28">
-      <c r="A20" s="12"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-    </row>
-    <row r="21" spans="1:28">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-    </row>
-    <row r="22" spans="1:28">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-    </row>
-    <row r="23" spans="1:28">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-    </row>
-    <row r="24" spans="1:28">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-    </row>
-    <row r="25" spans="1:28">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-    </row>
-    <row r="26" spans="1:25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="26"/>
+      <c r="B8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:E20"/>
-    <mergeCell ref="O19:Q20"/>
-    <mergeCell ref="G19:I20"/>
-    <mergeCell ref="S19:U20"/>
-    <mergeCell ref="K19:M20"/>
-    <mergeCell ref="W19:Y20"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
